--- a/flows/SCHR_fund_flow_data.xlsx
+++ b/flows/SCHR_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3418"/>
+  <dimension ref="A1:B3426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34615,6 +34615,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3419">
+      <c r="A3419" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3419" t="n">
+        <v>-53.746</v>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3420" t="n">
+        <v>4.892</v>
+      </c>
+    </row>
+    <row r="3421">
+      <c r="A3421" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3421" t="n">
+        <v>-4.898</v>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3422" t="n">
+        <v>-4.889</v>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3423" t="n">
+        <v>22.086</v>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3424" t="n">
+        <v>9.827999999999999</v>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3425" t="n">
+        <v>12.305</v>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3426" t="n">
+        <v>-9.856</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
